--- a/28_02_2023/AL232310_proyect.xlsx
+++ b/28_02_2023/AL232310_proyect.xlsx
@@ -37,7 +37,7 @@
     <x:t>ESI</x:t>
   </x:si>
   <x:si>
-    <x:t>un sistema telefónico o un sistema informático</x:t>
+    <x:t>un sistema telefónico o un sistema de TI</x:t>
   </x:si>
 </x:sst>
 </file>
